--- a/NCDPOCT.xlsx
+++ b/NCDPOCT.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="3" r:id="rId1"/>
     <sheet name="设备" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
   <si>
     <t>设备信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,19 +221,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namecn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlowvalue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhighvalue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlowvalue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhighvalue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlowvalue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhighvalue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlowvalue4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhighvalue4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
+    <t>参考值下限1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值上限1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值下限2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值上限2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值下限3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值上限3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值下限4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值上限4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POCT用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次在线时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备校准记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoreticalvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testdevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,171 +465,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namecn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlowvalue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nhighvalue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlowvalue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nhighvalue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlowvalue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nhighvalue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlowvalue4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nhighvalue4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值下限1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值上限1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄分段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值下限2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄分段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值上限2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值下限3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值上限3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄分段3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值下限4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考值上限4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POCT用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上次在线时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lasttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vender</t>
+    <t>设备质控记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备异常记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errortime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errordevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erroroperator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备维护记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintaintime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintaindevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintainoperator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告（荧光分析仪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项目代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambienttemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardtemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C线位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T线位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handlingtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告审核时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告审核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportdes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告审核说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,326 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备校准记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theoreticalvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理论值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>measurement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testdevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备质控记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备异常记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errortime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errordevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erroroperator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备维护记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintaintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintaindevice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintainoperator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告（荧光分析仪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精确度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sampleid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试项目代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ambienttemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardtemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试剂卡温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C线位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T线位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基线位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据上传时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>handlingtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告审核时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告审核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportdes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告审核说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试剂卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>试剂卡库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +766,62 @@
   </si>
   <si>
     <t>试剂卡管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devicetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatornew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人是否更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡科室库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡总库存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,30 +921,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -912,32 +953,32 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color theme="9" tint="0.39994506668294322"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,19 +986,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -994,6 +1037,115 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="243" name="组合 242"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3705225"/>
+          <a:ext cx="2466975" cy="1905000"/>
+          <a:chOff x="8029575" y="5543550"/>
+          <a:chExt cx="2466975" cy="1905000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="117" name="图片 116"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8039100" y="5543550"/>
+            <a:ext cx="2457450" cy="1905000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="矩形 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8029575" y="6924675"/>
+            <a:ext cx="2466975" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1061,9 +1213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1076,7 +1228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2343150" y="3452813"/>
-          <a:ext cx="1695450" cy="1366837"/>
+          <a:ext cx="1609725" cy="1728787"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1105,15 +1257,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1123,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1137,7 +1289,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4038600" y="4381500"/>
+          <a:off x="3952875" y="4743450"/>
           <a:ext cx="2486025" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1241,7 +1393,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1318,142 +1470,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="324" name="组合 323"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7972425" y="3810000"/>
-          <a:ext cx="2466975" cy="1743075"/>
-          <a:chOff x="8086725" y="5267325"/>
-          <a:chExt cx="2466975" cy="1743075"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="320" name="图片 319"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8096250" y="5267325"/>
-            <a:ext cx="2457450" cy="1743075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="矩形 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8086725" y="6657975"/>
-            <a:ext cx="2466975" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="76" name="肘形连接符 75"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="72" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10420350" y="4681538"/>
-          <a:ext cx="19050" cy="7586662"/>
+          <a:off x="10382250" y="4657725"/>
+          <a:ext cx="47625" cy="7991475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3700000"/>
+            <a:gd name="adj1" fmla="val -1360000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1480,32 +1523,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="79" name="肘形连接符 78"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="73" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10420350" y="4681538"/>
-          <a:ext cx="19050" cy="7739062"/>
+          <a:off x="10382250" y="4657725"/>
+          <a:ext cx="47625" cy="8153400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3750000"/>
+            <a:gd name="adj1" fmla="val -1340000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1532,15 +1575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1552,12 +1595,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="4819650"/>
-          <a:ext cx="1428750" cy="7762875"/>
+          <a:off x="6438900" y="5181600"/>
+          <a:ext cx="1476375" cy="7781925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 40000"/>
+            <a:gd name="adj1" fmla="val 51290"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1587,15 +1630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>6311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1607,12 +1650,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6524625" y="2273261"/>
-          <a:ext cx="1428750" cy="2546389"/>
+          <a:off x="6438900" y="2273261"/>
+          <a:ext cx="1514475" cy="2908339"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 39333"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1642,15 +1685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1661,13 +1704,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6524625" y="4819650"/>
-          <a:ext cx="1447800" cy="466725"/>
+        <a:xfrm flipV="1">
+          <a:off x="6438900" y="5172075"/>
+          <a:ext cx="1524000" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38816"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1696,88 +1739,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="肘形连接符 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="3"/>
-          <a:endCxn id="90" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6543675" y="7996238"/>
-          <a:ext cx="1409700" cy="4081462"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="组合 93"/>
+        <xdr:cNvPr id="228" name="组合 227"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7953375" y="10772775"/>
-          <a:ext cx="2466975" cy="2066925"/>
-          <a:chOff x="7943850" y="4648200"/>
-          <a:chExt cx="2466975" cy="2066925"/>
+          <a:off x="7915275" y="11515725"/>
+          <a:ext cx="2466975" cy="1895475"/>
+          <a:chOff x="7943850" y="9382125"/>
+          <a:chExt cx="2466975" cy="1895475"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="87" name="图片 86"/>
+          <xdr:cNvPr id="107" name="图片 106"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -1797,8 +1785,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="7953375" y="4648200"/>
-            <a:ext cx="2457450" cy="2066925"/>
+            <a:off x="7953375" y="9382125"/>
+            <a:ext cx="2457450" cy="1895475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1817,12 +1805,12 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="矩形 71"/>
+          <xdr:cNvPr id="73" name="矩形 72"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7943850" y="6057900"/>
+            <a:off x="7943850" y="10591800"/>
             <a:ext cx="2466975" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1857,12 +1845,12 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="矩形 72"/>
+          <xdr:cNvPr id="72" name="矩形 71"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7943850" y="6210300"/>
+            <a:off x="7943850" y="10429875"/>
             <a:ext cx="2466975" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1902,47 +1890,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7943850" y="6372225"/>
-            <a:ext cx="2466975" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="矩形 89"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7943850" y="5867400"/>
+            <a:off x="7943850" y="10744200"/>
             <a:ext cx="2466975" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1981,32 +1929,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="99" name="组合 98"/>
+        <xdr:cNvPr id="7" name="组合 6"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14725650" y="8877300"/>
-          <a:ext cx="2495550" cy="1724025"/>
-          <a:chOff x="11868150" y="4657725"/>
-          <a:chExt cx="2495550" cy="1724025"/>
+          <a:off x="14744700" y="8877300"/>
+          <a:ext cx="2486025" cy="1552575"/>
+          <a:chOff x="17316450" y="8867775"/>
+          <a:chExt cx="2486025" cy="1552575"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="97" name="图片 96"/>
+          <xdr:cNvPr id="75" name="图片 74"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2026,8 +1974,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="11877675" y="4657725"/>
-            <a:ext cx="2486025" cy="1724025"/>
+            <a:off x="17316450" y="8867775"/>
+            <a:ext cx="2486025" cy="1552575"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2051,7 +1999,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11868150" y="5867400"/>
+            <a:off x="17325975" y="9915525"/>
             <a:ext cx="2466975" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2091,47 +2039,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11868150" y="5676900"/>
-            <a:ext cx="2466975" cy="171450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="矩形 97"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11887200" y="5010150"/>
+            <a:off x="17325975" y="9734550"/>
             <a:ext cx="2466975" cy="171450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2169,88 +2077,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直接箭头连接符 100"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="3"/>
-          <a:endCxn id="98" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6543675" y="7996238"/>
-          <a:ext cx="8201025" cy="1319212"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8304"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="103" name="直接箭头连接符 102"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="3"/>
+          <a:stCxn id="107" idx="3"/>
           <a:endCxn id="96" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10420350" y="9982200"/>
-          <a:ext cx="4305300" cy="1824038"/>
+          <a:off x="10382250" y="9829800"/>
+          <a:ext cx="4371975" cy="2633663"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 86504"/>
+            <a:gd name="adj1" fmla="val 35621"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2508,7 +2361,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 8314"/>
+            <a:gd name="adj1" fmla="val 10393"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2538,31 +2391,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="124" name="直接箭头连接符 123"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="3"/>
+          <a:stCxn id="107" idx="3"/>
           <a:endCxn id="120" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10420350" y="11796713"/>
-          <a:ext cx="4362450" cy="9525"/>
+          <a:off x="10382250" y="11796713"/>
+          <a:ext cx="4400550" cy="666750"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35281"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2591,9 +2446,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -2605,18 +2460,18 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="126" name="直接箭头连接符 125"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="108" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="4681538"/>
-          <a:ext cx="4333875" cy="7567612"/>
+          <a:off x="10429875" y="4657725"/>
+          <a:ext cx="4343400" cy="7591425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 16154"/>
+            <a:gd name="adj1" fmla="val 14693"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2792,9 +2647,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -2806,18 +2661,18 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="132" name="直接箭头连接符 131"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="3"/>
+          <a:stCxn id="107" idx="3"/>
           <a:endCxn id="127" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10420350" y="11806238"/>
-          <a:ext cx="4419600" cy="1866900"/>
+          <a:off x="10382250" y="12463463"/>
+          <a:ext cx="4457700" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 84268"/>
+            <a:gd name="adj1" fmla="val 35043"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2847,9 +2702,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -2861,18 +2716,18 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="134" name="直接箭头连接符 133"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="130" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="4681538"/>
-          <a:ext cx="4400550" cy="9320212"/>
+          <a:off x="10429875" y="4657725"/>
+          <a:ext cx="4410075" cy="9344025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 16017"/>
+            <a:gd name="adj1" fmla="val 14363"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3048,9 +2903,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3062,18 +2917,18 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="141" name="直接箭头连接符 140"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="3"/>
+          <a:stCxn id="107" idx="3"/>
           <a:endCxn id="136" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10420350" y="11806238"/>
-          <a:ext cx="4476750" cy="3609975"/>
+          <a:off x="10382250" y="12463463"/>
+          <a:ext cx="4514850" cy="2952750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 82979"/>
+            <a:gd name="adj1" fmla="val 34388"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3103,9 +2958,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3117,18 +2972,18 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="144" name="直接箭头连接符 143"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="138" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="4681538"/>
-          <a:ext cx="4467225" cy="10987087"/>
+          <a:off x="10429875" y="4657725"/>
+          <a:ext cx="4476750" cy="11010900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 15885"/>
+            <a:gd name="adj1" fmla="val 14255"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3439,32 +3294,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="174" name="直接箭头连接符 173"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="3"/>
+          <a:stCxn id="107" idx="3"/>
           <a:endCxn id="168" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10420350" y="3152775"/>
-          <a:ext cx="4324350" cy="8653463"/>
+          <a:off x="10382250" y="3152775"/>
+          <a:ext cx="4362450" cy="9310688"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 86124"/>
+            <a:gd name="adj1" fmla="val 35371"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3494,32 +3349,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="176" name="直接箭头连接符 175"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
+          <a:stCxn id="117" idx="3"/>
           <a:endCxn id="169" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10439400" y="3486150"/>
-          <a:ext cx="4295775" cy="1195388"/>
+          <a:off x="10429875" y="3486150"/>
+          <a:ext cx="4305300" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 16297"/>
+            <a:gd name="adj1" fmla="val 15044"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3949,9 +3804,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -3969,12 +3824,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="4819650"/>
-          <a:ext cx="8201025" cy="3057525"/>
+          <a:off x="6438900" y="5181600"/>
+          <a:ext cx="8286750" cy="2695575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 6794"/>
+            <a:gd name="adj1" fmla="val 9080"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4138,7 +3993,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 63194"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4157,6 +4012,215 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="肘形连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="3"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429875" y="4657725"/>
+          <a:ext cx="4324350" cy="5353050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14978"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图片 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4057650" y="10334625"/>
+          <a:ext cx="2486025" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="肘形连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4912520" y="9932194"/>
+          <a:ext cx="790575" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="肘形连接符 224"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="107" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6153150" y="10691812"/>
+          <a:ext cx="919163" cy="2624137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4457,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4474,2598 +4538,2598 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
-      <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7081,10 +7145,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7104,14 +7168,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="I2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="M2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="13"/>
+      <c r="I2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -7147,10 +7211,10 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -7167,10 +7231,10 @@
         <v>40</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -7190,10 +7254,10 @@
         <v>41</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -7207,10 +7271,10 @@
         <v>42</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -7227,10 +7291,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -7250,10 +7314,10 @@
         <v>44</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -7267,10 +7331,10 @@
         <v>45</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -7279,12 +7343,6 @@
       </c>
       <c r="J11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -7343,10 +7401,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -7365,24 +7423,24 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="M18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="13"/>
+      <c r="I18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="M18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>23</v>
@@ -7399,46 +7457,46 @@
         <v>19</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="I21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="I22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -7452,16 +7510,16 @@
         <v>14</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -7469,52 +7527,52 @@
         <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -7525,30 +7583,30 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N29" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>23</v>
@@ -7559,66 +7617,66 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="I32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>25</v>
@@ -7628,30 +7686,30 @@
       </c>
     </row>
     <row r="36" spans="9:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="9:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="I37" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="15"/>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N38" s="13"/>
+      <c r="M38" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>169</v>
+      <c r="I39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>23</v>
@@ -7661,52 +7719,52 @@
       </c>
     </row>
     <row r="40" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="41" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="42" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="11" t="s">
         <v>43</v>
       </c>
       <c r="M42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N42" s="4" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="43" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -7717,30 +7775,30 @@
       </c>
     </row>
     <row r="44" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="9:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I46" s="7" t="s">
+      <c r="M45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -7750,198 +7808,198 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="9:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="9:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="M47" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I48" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J48" s="13"/>
       <c r="M48" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="15"/>
       <c r="M49" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I50" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I51" s="3" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>98</v>
+      <c r="I52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I55" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I56" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>90</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I57" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I58" s="3" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I59" s="3" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="9:14" x14ac:dyDescent="0.15">
       <c r="M60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I61" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="M61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N61" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="I61" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J61" s="13"/>
-      <c r="M61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="62" spans="9:14" x14ac:dyDescent="0.15">
@@ -7952,127 +8010,169 @@
         <v>27</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I63" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I65" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I66" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I67" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I68" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I65" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J65" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I66" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I67" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I68" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I70" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="N68" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="M69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I70" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="M70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="M71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I72" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I73" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I74" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I75" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I76" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I77" s="3" t="s">
         <v>35</v>
       </c>
@@ -8080,37 +8180,122 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I78" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.15">
       <c r="I79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I81" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I83" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I84" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>179</v>
+      <c r="J84" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I87" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M38:N38"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>